--- a/PACK_Gen/Files/Examples/misc/ADCUI_VE4/Docs/ADCUI.xlsx
+++ b/PACK_Gen/Files/Examples/misc/ADCUI_VE4/Docs/ADCUI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="396">
   <si>
     <t>INP2, V</t>
   </si>
@@ -1182,29 +1182,58 @@
     <t>INM2 INP2</t>
   </si>
   <si>
-    <t>AverPos</t>
-  </si>
-  <si>
-    <t>AverNeg</t>
-  </si>
-  <si>
-    <t>Aver DATA/1mV</t>
-  </si>
-  <si>
-    <t>Udiff, mV</t>
-  </si>
-  <si>
     <t>Udiff, V</t>
   </si>
   <si>
     <t>DATA/0,2V</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average DATA/0,2V</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>DATA/1V</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Offset задать например в 100000 чтобы увидеть что графики</t>
+  </si>
+  <si>
+    <t>Измерено по 10 отсчетов с шагом дифференциального сигнала 0,2В</t>
+  </si>
+  <si>
+    <t>от измеренных значений и рассчетный по формуле совпадают</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Формула: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATA = -1783643 * (INP - INM)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,8 +1272,17 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1260,12 +1298,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1287,18 +1325,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1310,11 +1339,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1330,28 +1593,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,6 +1764,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>DATA</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1464,171 +1781,216 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>(Лист2!$B$23:$R$23,Лист2!$B$7:$R$7)</c:f>
+              <c:f>Лист2!$C$7:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="17">
                   <c:v>0.19999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
                   <c:v>0.40000000000000013</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="19">
                   <c:v>0.59999999999999987</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>1.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>1.5999999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.40000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.59999999999999987</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$B$18:$R$18</c:f>
+              <c:f>Лист2!$N$7:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>127.6</c:v>
+                  <c:v>5707341.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356369.3</c:v>
+                  <c:v>5350768.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>712941.7</c:v>
+                  <c:v>4994445.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1069253.6000000001</c:v>
+                  <c:v>4637281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1426877.5</c:v>
+                  <c:v>4280809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1783283.8</c:v>
+                  <c:v>3924022.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2139571.5</c:v>
+                  <c:v>3567182.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2496887.9</c:v>
+                  <c:v>3210263.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2853617.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3210263.5</c:v>
+                  <c:v>2496887.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3567182.3</c:v>
+                  <c:v>2139571.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3924022.1</c:v>
+                  <c:v>1783283.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4280809</c:v>
+                  <c:v>1426877.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4637281</c:v>
+                  <c:v>1069253.6000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4994445.4000000004</c:v>
+                  <c:v>712941.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5350768.7</c:v>
+                  <c:v>356369.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5707341.2999999998</c:v>
+                  <c:v>-666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-357897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-714019.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1070773.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1428012.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1784280.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2141512</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2498069.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2854472.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3211640.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3568252.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3925597.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4281450.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4638061</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4995010.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5351722.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5707973.9000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,7 +1998,140 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-F8D5-45FE-947D-14D3970FE0CE}"/>
+              <c16:uniqueId val="{00000000-DF6E-481F-A94D-DCC36F9D9300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Formula</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$49:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5707657.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5350928.9999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4994200.3999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4637471.7999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4280743.1999999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3924014.5999999982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3567285.9999999981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3210557.3999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2853828.7999999984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2497100.1999999988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2140371.5999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1783642.9999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1426914.3999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1070185.7999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>713457.19999999925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356728.59999999928</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-356728.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-713457.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1070185.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1426914.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1783642.9999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2140371.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2497100.1999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2853828.7999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3210557.3999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3567285.9999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3924014.5999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4280743.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4637471.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4994200.3999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5350929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5707657.6000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF6E-481F-A94D-DCC36F9D9300}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1747,364 +2242,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист2!$B$23:$R$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59999999999999987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$34:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>-666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-357897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-714019.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1070773.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1428012.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1784280.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2141512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2498069.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2854472.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3211640.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3568252.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3925597.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4281450.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4638061</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4995010.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-5351722.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-5707973.9000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1584-44F7-BBF8-8CAE33EA8C49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="254308552"/>
-        <c:axId val="254308224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="254308552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254308224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254308224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254308552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2148,46 +2286,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2743,536 +2841,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>51548</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>848446</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>185216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63232</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3286,36 +2868,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4869,1821 +4421,2136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T48"/>
+  <dimension ref="A2:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" customWidth="1"/>
     <col min="20" max="20" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>-3.2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5706981</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5708146</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5706565</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5707462</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5707257</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5707003</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5707501</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5707268</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5706994</v>
+      </c>
+      <c r="M7" s="21">
+        <v>5708236</v>
+      </c>
+      <c r="N7" s="26">
+        <f>SUM(D7:M7)/10</f>
+        <v>5707341.2999999998</v>
+      </c>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="8">
+        <f>B8-A8</f>
+        <v>-3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5352093</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5350451</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5350243</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5350788</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5350429</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5350207</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5350736</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5350652</v>
+      </c>
+      <c r="L8" s="9">
+        <v>5351911</v>
+      </c>
+      <c r="M8" s="21">
+        <v>5350177</v>
+      </c>
+      <c r="N8" s="26">
+        <f t="shared" ref="N8:N39" si="0">SUM(D8:M8)/10</f>
+        <v>5350768.7</v>
+      </c>
+      <c r="O8" s="28">
+        <f>N7-N8</f>
+        <v>356572.59999999963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="8">
+        <f>B9-A9</f>
+        <v>-2.8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4994722</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4994647</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4994900</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4994086</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4994354</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4993168</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4995743</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4994843</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4993244</v>
+      </c>
+      <c r="M9" s="21">
+        <v>4994747</v>
+      </c>
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
+        <v>4994445.4000000004</v>
+      </c>
+      <c r="O9" s="28">
+        <f t="shared" ref="O9:O39" si="1">N8-N9</f>
+        <v>356323.29999999981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="8">
+        <f>B10-A10</f>
+        <v>-2.6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4637014</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4637581</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4637990</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4637068</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4637144</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4636621</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4637236</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4637298</v>
+      </c>
+      <c r="L10" s="9">
+        <v>4637586</v>
+      </c>
+      <c r="M10" s="21">
+        <v>4637272</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" si="0"/>
+        <v>4637281</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" si="1"/>
+        <v>357164.40000000037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="8">
+        <f>B11-A11</f>
+        <v>-2.4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4282442</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4280799</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4280120</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4281288</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4280991</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4281021</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4280281</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4280582</v>
+      </c>
+      <c r="L11" s="9">
+        <v>4280075</v>
+      </c>
+      <c r="M11" s="21">
+        <v>4280491</v>
+      </c>
+      <c r="N11" s="26">
+        <f t="shared" si="0"/>
+        <v>4280809</v>
+      </c>
+      <c r="O11" s="28">
+        <f t="shared" si="1"/>
+        <v>356472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="8">
+        <f>B12-A12</f>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3925166</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3923489</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3924476</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3924043</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3923608</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3923646</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3923444</v>
+      </c>
+      <c r="K12" s="10">
+        <v>3924860</v>
+      </c>
+      <c r="L12" s="10">
+        <v>3923509</v>
+      </c>
+      <c r="M12" s="22">
+        <v>3923980</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="0"/>
+        <v>3924022.1</v>
+      </c>
+      <c r="O12" s="28">
+        <f t="shared" si="1"/>
+        <v>356786.89999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13-A13</f>
+        <v>-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3566836</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3567591</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3567034</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3567048</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3567417</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3568276</v>
+      </c>
+      <c r="J13" s="9">
+        <v>3566737</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3566650</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3566682</v>
+      </c>
+      <c r="M13" s="21">
+        <v>3567552</v>
+      </c>
+      <c r="N13" s="26">
+        <f t="shared" si="0"/>
+        <v>3567182.3</v>
+      </c>
+      <c r="O13" s="28">
+        <f t="shared" si="1"/>
+        <v>356839.80000000028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="8">
+        <f>B14-A14</f>
+        <v>-1.8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3210185</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3209672</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3210272</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3210283</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3210079</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3209776</v>
+      </c>
+      <c r="J14" s="9">
+        <v>3209749</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3210457</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3211307</v>
+      </c>
+      <c r="M14" s="21">
+        <v>3210855</v>
+      </c>
+      <c r="N14" s="26">
+        <f t="shared" si="0"/>
+        <v>3210263.5</v>
+      </c>
+      <c r="O14" s="28">
+        <f t="shared" si="1"/>
+        <v>356918.79999999981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="8">
+        <f>B15-A15</f>
+        <v>-1.5999999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2854334</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2854196</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2853716</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2852993</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2853967</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2853730</v>
+      </c>
+      <c r="J15" s="9">
+        <v>2854674</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2853255</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2853283</v>
+      </c>
+      <c r="M15" s="21">
+        <v>2852024</v>
+      </c>
+      <c r="N15" s="26">
+        <f t="shared" si="0"/>
+        <v>2853617.2</v>
+      </c>
+      <c r="O15" s="28">
+        <f t="shared" si="1"/>
+        <v>356646.29999999981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="8">
+        <f>B16-A16</f>
+        <v>-1.4</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2496618</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2496912</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2497134</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2496531</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2496871</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2495776</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2498694</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2496716</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2496289</v>
+      </c>
+      <c r="M16" s="21">
+        <v>2497338</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="0"/>
+        <v>2496887.9</v>
+      </c>
+      <c r="O16" s="28">
+        <f t="shared" si="1"/>
+        <v>356729.30000000028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <f>B17-A17</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2139916</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2138988</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2139413</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2139370</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2138870</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2139451</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2139583</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2140373</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2139502</v>
+      </c>
+      <c r="M17" s="21">
+        <v>2140249</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="0"/>
+        <v>2139571.5</v>
+      </c>
+      <c r="O17" s="28">
+        <f t="shared" si="1"/>
+        <v>357316.39999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" s="8">
+        <f>B18-A18</f>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1783234</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1782728</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1783135</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1783506</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1783254</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1783167</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1784200</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1783066</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1783323</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1783225</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" si="0"/>
+        <v>1783283.8</v>
+      </c>
+      <c r="O18" s="28">
+        <f t="shared" si="1"/>
+        <v>356287.69999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="8">
+        <f>B19-A19</f>
+        <v>-0.8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1426519</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1426424</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1427284</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1426944</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1426581</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1426732</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1426607</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1427602</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1426777</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1427305</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" si="0"/>
+        <v>1426877.5</v>
+      </c>
+      <c r="O19" s="28">
+        <f t="shared" si="1"/>
+        <v>356406.30000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="8">
+        <f>B20-A20</f>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1070222</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1068313</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1070694</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1067981</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1069010</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1069630</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1068389</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1069372</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1069509</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1069416</v>
+      </c>
+      <c r="N20" s="26">
+        <f t="shared" si="0"/>
+        <v>1069253.6000000001</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="1"/>
+        <v>357623.89999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C21" s="8">
+        <f>B21-A21</f>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="D21" s="9">
+        <v>713088</v>
+      </c>
+      <c r="E21" s="9">
+        <v>712522</v>
+      </c>
+      <c r="F21" s="9">
+        <v>712575</v>
+      </c>
+      <c r="G21" s="9">
+        <v>712579</v>
+      </c>
+      <c r="H21" s="9">
+        <v>712340</v>
+      </c>
+      <c r="I21" s="9">
+        <v>712264</v>
+      </c>
+      <c r="J21" s="9">
+        <v>713160</v>
+      </c>
+      <c r="K21" s="9">
+        <v>714179</v>
+      </c>
+      <c r="L21" s="9">
+        <v>713593</v>
+      </c>
+      <c r="M21" s="21">
+        <v>713117</v>
+      </c>
+      <c r="N21" s="26">
+        <f t="shared" si="0"/>
+        <v>712941.7</v>
+      </c>
+      <c r="O21" s="28">
+        <f t="shared" si="1"/>
+        <v>356311.90000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="8">
+        <f>B22-A22</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D22" s="10">
+        <v>356796</v>
+      </c>
+      <c r="E22" s="10">
+        <v>356219</v>
+      </c>
+      <c r="F22" s="10">
+        <v>356366</v>
+      </c>
+      <c r="G22" s="10">
+        <v>356365</v>
+      </c>
+      <c r="H22" s="10">
+        <v>356418</v>
+      </c>
+      <c r="I22" s="10">
+        <v>356191</v>
+      </c>
+      <c r="J22" s="10">
+        <v>356134</v>
+      </c>
+      <c r="K22" s="10">
+        <v>356086</v>
+      </c>
+      <c r="L22" s="10">
+        <v>355692</v>
+      </c>
+      <c r="M22" s="22">
+        <v>357426</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" si="0"/>
+        <v>356369.3</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" si="1"/>
+        <v>356572.39999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>1.6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B23" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="C23" s="8">
+        <f>B23-A23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-630</v>
+      </c>
+      <c r="E23" s="9">
+        <v>-337</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-1525</v>
+      </c>
+      <c r="G23" s="9">
+        <v>118</v>
+      </c>
+      <c r="H23" s="9">
+        <v>-788</v>
+      </c>
+      <c r="I23" s="9">
+        <v>-858</v>
+      </c>
+      <c r="J23" s="9">
+        <v>-234</v>
+      </c>
+      <c r="K23" s="9">
+        <v>-865</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-699</v>
+      </c>
+      <c r="M23" s="21">
+        <v>-842</v>
+      </c>
+      <c r="N23" s="26">
+        <f t="shared" si="0"/>
+        <v>-666</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="1"/>
+        <v>357035.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B24" s="8">
         <v>1.7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C24" s="8">
+        <f>B24-A24</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-357565</v>
+      </c>
+      <c r="E24" s="10">
+        <v>-358301</v>
+      </c>
+      <c r="F24" s="10">
+        <v>-358284</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-357270</v>
+      </c>
+      <c r="H24" s="10">
+        <v>-358539</v>
+      </c>
+      <c r="I24" s="10">
+        <v>-357870</v>
+      </c>
+      <c r="J24" s="10">
+        <v>-358448</v>
+      </c>
+      <c r="K24" s="10">
+        <v>-357629</v>
+      </c>
+      <c r="L24" s="10">
+        <v>-358301</v>
+      </c>
+      <c r="M24" s="22">
+        <v>-356763</v>
+      </c>
+      <c r="N24" s="26">
+        <f t="shared" si="0"/>
+        <v>-357897</v>
+      </c>
+      <c r="O24" s="28">
+        <f t="shared" si="1"/>
+        <v>357231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B25" s="8">
         <v>1.8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="C25" s="8">
+        <f>B25-A25</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-714606</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-714199</v>
+      </c>
+      <c r="F25" s="9">
+        <v>-714092</v>
+      </c>
+      <c r="G25" s="9">
+        <v>-714495</v>
+      </c>
+      <c r="H25" s="9">
+        <v>-712419</v>
+      </c>
+      <c r="I25" s="9">
+        <v>-714186</v>
+      </c>
+      <c r="J25" s="9">
+        <v>-713463</v>
+      </c>
+      <c r="K25" s="9">
+        <v>-714329</v>
+      </c>
+      <c r="L25" s="9">
+        <v>-714851</v>
+      </c>
+      <c r="M25" s="21">
+        <v>-713556</v>
+      </c>
+      <c r="N25" s="26">
+        <f t="shared" si="0"/>
+        <v>-714019.6</v>
+      </c>
+      <c r="O25" s="28">
+        <f t="shared" si="1"/>
+        <v>356122.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B26" s="8">
         <v>1.9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="C26" s="8">
+        <f>B26-A26</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="D26" s="9">
+        <v>-1072852</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-1071103</v>
+      </c>
+      <c r="F26" s="9">
+        <v>-1070401</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-1070846</v>
+      </c>
+      <c r="H26" s="9">
+        <v>-1072199</v>
+      </c>
+      <c r="I26" s="9">
+        <v>-1070848</v>
+      </c>
+      <c r="J26" s="9">
+        <v>-1070129</v>
+      </c>
+      <c r="K26" s="9">
+        <v>-1070120</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-1069189</v>
+      </c>
+      <c r="M26" s="21">
+        <v>-1070051</v>
+      </c>
+      <c r="N26" s="26">
+        <f t="shared" si="0"/>
+        <v>-1070773.8</v>
+      </c>
+      <c r="O26" s="28">
+        <f t="shared" si="1"/>
+        <v>356754.20000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B27" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="C27" s="8">
+        <f>B27-A27</f>
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="9">
+        <v>-1427408</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-1427367</v>
+      </c>
+      <c r="F27" s="9">
+        <v>-1429100</v>
+      </c>
+      <c r="G27" s="9">
+        <v>-1427153</v>
+      </c>
+      <c r="H27" s="9">
+        <v>-1428871</v>
+      </c>
+      <c r="I27" s="9">
+        <v>-1428225</v>
+      </c>
+      <c r="J27" s="9">
+        <v>-1427861</v>
+      </c>
+      <c r="K27" s="9">
+        <v>-1428764</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-1427970</v>
+      </c>
+      <c r="M27" s="21">
+        <v>-1427410</v>
+      </c>
+      <c r="N27" s="26">
+        <f t="shared" si="0"/>
+        <v>-1428012.9</v>
+      </c>
+      <c r="O27" s="28">
+        <f t="shared" si="1"/>
+        <v>357239.09999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28" s="8">
         <v>2.1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="C28" s="8">
+        <f>B28-A28</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>-1784128</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-1784688</v>
+      </c>
+      <c r="F28" s="9">
+        <v>-1783810</v>
+      </c>
+      <c r="G28" s="9">
+        <v>-1783344</v>
+      </c>
+      <c r="H28" s="9">
+        <v>-1785194</v>
+      </c>
+      <c r="I28" s="9">
+        <v>-1785165</v>
+      </c>
+      <c r="J28" s="9">
+        <v>-1784149</v>
+      </c>
+      <c r="K28" s="9">
+        <v>-1784525</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-1783423</v>
+      </c>
+      <c r="M28" s="21">
+        <v>-1784380</v>
+      </c>
+      <c r="N28" s="26">
+        <f t="shared" si="0"/>
+        <v>-1784280.6</v>
+      </c>
+      <c r="O28" s="28">
+        <f t="shared" si="1"/>
+        <v>356267.70000000019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I5" s="5">
+      <c r="C29" s="8">
+        <f>B29-A29</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D29" s="9">
+        <v>-2140791</v>
+      </c>
+      <c r="E29" s="9">
+        <v>-2142110</v>
+      </c>
+      <c r="F29" s="9">
+        <v>-2141278</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-2141579</v>
+      </c>
+      <c r="H29" s="9">
+        <v>-2141335</v>
+      </c>
+      <c r="I29" s="9">
+        <v>-2142089</v>
+      </c>
+      <c r="J29" s="9">
+        <v>-2141120</v>
+      </c>
+      <c r="K29" s="9">
+        <v>-2140551</v>
+      </c>
+      <c r="L29" s="9">
+        <v>-2141947</v>
+      </c>
+      <c r="M29" s="21">
+        <v>-2142320</v>
+      </c>
+      <c r="N29" s="26">
+        <f t="shared" si="0"/>
+        <v>-2141512</v>
+      </c>
+      <c r="O29" s="28">
+        <f t="shared" si="1"/>
+        <v>357231.39999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B30" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J5" s="5">
+      <c r="C30" s="8">
+        <f>B30-A30</f>
+        <v>1.4</v>
+      </c>
+      <c r="D30" s="9">
+        <v>-2499620</v>
+      </c>
+      <c r="E30" s="9">
+        <v>-2497940</v>
+      </c>
+      <c r="F30" s="9">
+        <v>-2498131</v>
+      </c>
+      <c r="G30" s="9">
+        <v>-2496996</v>
+      </c>
+      <c r="H30" s="9">
+        <v>-2497417</v>
+      </c>
+      <c r="I30" s="9">
+        <v>-2497926</v>
+      </c>
+      <c r="J30" s="9">
+        <v>-2498200</v>
+      </c>
+      <c r="K30" s="9">
+        <v>-2496976</v>
+      </c>
+      <c r="L30" s="9">
+        <v>-2497581</v>
+      </c>
+      <c r="M30" s="21">
+        <v>-2499904</v>
+      </c>
+      <c r="N30" s="26">
+        <f t="shared" si="0"/>
+        <v>-2498069.1</v>
+      </c>
+      <c r="O30" s="28">
+        <f t="shared" si="1"/>
+        <v>356557.10000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="B31" s="8">
         <v>2.4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="C31" s="8">
+        <f>B31-A31</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D31" s="9">
+        <v>-2853458</v>
+      </c>
+      <c r="E31" s="9">
+        <v>-2853793</v>
+      </c>
+      <c r="F31" s="9">
+        <v>-2854245</v>
+      </c>
+      <c r="G31" s="9">
+        <v>-2853305</v>
+      </c>
+      <c r="H31" s="9">
+        <v>-2854634</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-2854959</v>
+      </c>
+      <c r="J31" s="9">
+        <v>-2854056</v>
+      </c>
+      <c r="K31" s="9">
+        <v>-2855306</v>
+      </c>
+      <c r="L31" s="9">
+        <v>-2855428</v>
+      </c>
+      <c r="M31" s="21">
+        <v>-2855544</v>
+      </c>
+      <c r="N31" s="26">
+        <f t="shared" si="0"/>
+        <v>-2854472.8</v>
+      </c>
+      <c r="O31" s="28">
+        <f t="shared" si="1"/>
+        <v>356403.69999999972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="B32" s="8">
         <v>2.5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="C32" s="8">
+        <f>B32-A32</f>
+        <v>1.8</v>
+      </c>
+      <c r="D32" s="9">
+        <v>-3212513</v>
+      </c>
+      <c r="E32" s="9">
+        <v>-3211031</v>
+      </c>
+      <c r="F32" s="9">
+        <v>-3211612</v>
+      </c>
+      <c r="G32" s="9">
+        <v>-3210683</v>
+      </c>
+      <c r="H32" s="9">
+        <v>-3211154</v>
+      </c>
+      <c r="I32" s="9">
+        <v>-3212296</v>
+      </c>
+      <c r="J32" s="9">
+        <v>-3212132</v>
+      </c>
+      <c r="K32" s="9">
+        <v>-3211152</v>
+      </c>
+      <c r="L32" s="9">
+        <v>-3211853</v>
+      </c>
+      <c r="M32" s="21">
+        <v>-3211978</v>
+      </c>
+      <c r="N32" s="26">
+        <f t="shared" si="0"/>
+        <v>-3211640.4</v>
+      </c>
+      <c r="O32" s="28">
+        <f t="shared" si="1"/>
+        <v>357167.60000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="B33" s="8">
         <v>2.6</v>
       </c>
-      <c r="M5" s="5">
+      <c r="C33" s="8">
+        <f>B33-A33</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>-3567256</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-3567805</v>
+      </c>
+      <c r="F33" s="9">
+        <v>-3568695</v>
+      </c>
+      <c r="G33" s="9">
+        <v>-3568383</v>
+      </c>
+      <c r="H33" s="9">
+        <v>-3568386</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-3568992</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-3568434</v>
+      </c>
+      <c r="K33" s="9">
+        <v>-3567356</v>
+      </c>
+      <c r="L33" s="9">
+        <v>-3568439</v>
+      </c>
+      <c r="M33" s="21">
+        <v>-3568782</v>
+      </c>
+      <c r="N33" s="26">
+        <f t="shared" si="0"/>
+        <v>-3568252.8</v>
+      </c>
+      <c r="O33" s="28">
+        <f t="shared" si="1"/>
+        <v>356612.39999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B34" s="8">
         <v>2.7</v>
       </c>
-      <c r="N5" s="5">
+      <c r="C34" s="8">
+        <f>B34-A34</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-3925202</v>
+      </c>
+      <c r="E34" s="10">
+        <v>-3925352</v>
+      </c>
+      <c r="F34" s="10">
+        <v>-3924925</v>
+      </c>
+      <c r="G34" s="10">
+        <v>-3925815</v>
+      </c>
+      <c r="H34" s="10">
+        <v>-3925500</v>
+      </c>
+      <c r="I34" s="10">
+        <v>-3924696</v>
+      </c>
+      <c r="J34" s="10">
+        <v>-3926431</v>
+      </c>
+      <c r="K34" s="10">
+        <v>-3925918</v>
+      </c>
+      <c r="L34" s="10">
+        <v>-3926513</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-3925624</v>
+      </c>
+      <c r="N34" s="26">
+        <f t="shared" si="0"/>
+        <v>-3925597.6</v>
+      </c>
+      <c r="O34" s="28">
+        <f t="shared" si="1"/>
+        <v>357344.80000000028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B35" s="8">
         <v>2.8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="C35" s="8">
+        <f>B35-A35</f>
+        <v>2.4</v>
+      </c>
+      <c r="D35" s="9">
+        <v>-4282803</v>
+      </c>
+      <c r="E35" s="9">
+        <v>-4281158</v>
+      </c>
+      <c r="F35" s="9">
+        <v>-4281587</v>
+      </c>
+      <c r="G35" s="9">
+        <v>-4280700</v>
+      </c>
+      <c r="H35" s="9">
+        <v>-4281277</v>
+      </c>
+      <c r="I35" s="9">
+        <v>-4281579</v>
+      </c>
+      <c r="J35" s="9">
+        <v>-4280864</v>
+      </c>
+      <c r="K35" s="9">
+        <v>-4281242</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-4281746</v>
+      </c>
+      <c r="M35" s="21">
+        <v>-4281545</v>
+      </c>
+      <c r="N35" s="26">
+        <f t="shared" si="0"/>
+        <v>-4281450.0999999996</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="1"/>
+        <v>355852.49999999953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B36" s="8">
         <v>2.9</v>
       </c>
-      <c r="P5" s="5">
+      <c r="C36" s="8">
+        <f>B36-A36</f>
+        <v>2.6</v>
+      </c>
+      <c r="D36" s="9">
+        <v>-4637956</v>
+      </c>
+      <c r="E36" s="9">
+        <v>-4638187</v>
+      </c>
+      <c r="F36" s="9">
+        <v>-4637302</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-4638166</v>
+      </c>
+      <c r="H36" s="9">
+        <v>-4638174</v>
+      </c>
+      <c r="I36" s="9">
+        <v>-4638322</v>
+      </c>
+      <c r="J36" s="9">
+        <v>-4637842</v>
+      </c>
+      <c r="K36" s="9">
+        <v>-4637930</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-4638239</v>
+      </c>
+      <c r="M36" s="21">
+        <v>-4638492</v>
+      </c>
+      <c r="N36" s="26">
+        <f t="shared" si="0"/>
+        <v>-4638061</v>
+      </c>
+      <c r="O36" s="28">
+        <f t="shared" si="1"/>
+        <v>356610.90000000037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="C37" s="8">
+        <f>B37-A37</f>
+        <v>2.8</v>
+      </c>
+      <c r="D37" s="9">
+        <v>-4994183</v>
+      </c>
+      <c r="E37" s="9">
+        <v>-4995476</v>
+      </c>
+      <c r="F37" s="9">
+        <v>-4995361</v>
+      </c>
+      <c r="G37" s="9">
+        <v>-4994788</v>
+      </c>
+      <c r="H37" s="9">
+        <v>-4994789</v>
+      </c>
+      <c r="I37" s="9">
+        <v>-4994540</v>
+      </c>
+      <c r="J37" s="9">
+        <v>-4995193</v>
+      </c>
+      <c r="K37" s="9">
+        <v>-4995386</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-4994866</v>
+      </c>
+      <c r="M37" s="21">
+        <v>-4995519</v>
+      </c>
+      <c r="N37" s="26">
+        <f t="shared" si="0"/>
+        <v>-4995010.0999999996</v>
+      </c>
+      <c r="O37" s="28">
+        <f t="shared" si="1"/>
+        <v>356949.09999999963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B38" s="8">
         <v>3.1</v>
       </c>
-      <c r="R5" s="5">
+      <c r="C38" s="8">
+        <f>B38-A38</f>
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>-5351878</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-5352601</v>
+      </c>
+      <c r="F38" s="9">
+        <v>-5350436</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-5352298</v>
+      </c>
+      <c r="H38" s="9">
+        <v>-5352275</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-5352353</v>
+      </c>
+      <c r="J38" s="9">
+        <v>-5350997</v>
+      </c>
+      <c r="K38" s="9">
+        <v>-5351373</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-5351283</v>
+      </c>
+      <c r="M38" s="21">
+        <v>-5351728</v>
+      </c>
+      <c r="N38" s="26">
+        <f t="shared" si="0"/>
+        <v>-5351722.2</v>
+      </c>
+      <c r="O38" s="28">
+        <f t="shared" si="1"/>
+        <v>356712.10000000056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>0</v>
+      </c>
+      <c r="B39" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C39" s="8">
+        <f>B39-A39</f>
+        <v>3.2</v>
+      </c>
+      <c r="D39" s="9">
+        <v>-5708310</v>
+      </c>
+      <c r="E39" s="9">
+        <v>-5707875</v>
+      </c>
+      <c r="F39" s="9">
+        <v>-5707718</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-5708748</v>
+      </c>
+      <c r="H39" s="9">
+        <v>-5707160</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-5707616</v>
+      </c>
+      <c r="J39" s="9">
+        <v>-5708367</v>
+      </c>
+      <c r="K39" s="9">
+        <v>-5707388</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-5708380</v>
+      </c>
+      <c r="M39" s="23">
+        <v>-5708177</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="0"/>
+        <v>-5707973.9000000004</v>
+      </c>
+      <c r="O39" s="30">
+        <f t="shared" si="1"/>
+        <v>356251.70000000019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="20">
+        <f>AVERAGE(O8:O39)</f>
+        <v>356728.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="N41" s="15"/>
+      <c r="O41" s="13">
+        <f>-O40/0.2</f>
+        <v>-1783642.9999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
         <v>0</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C49" s="17">
+        <v>-3.2</v>
+      </c>
+      <c r="D49" s="18">
+        <f>$O$41*C49+$B$49</f>
+        <v>5707657.5999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="17">
+        <f>C49+0.2</f>
+        <v>-3</v>
+      </c>
+      <c r="D50" s="18">
+        <f>$O$41*C50+$B$49</f>
+        <v>5350928.9999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="17">
+        <f t="shared" ref="C51:C74" si="2">C50+0.2</f>
+        <v>-2.8</v>
+      </c>
+      <c r="D51" s="18">
+        <f>$O$41*C51+$B$49</f>
+        <v>4994200.3999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.5999999999999996</v>
+      </c>
+      <c r="D52" s="18">
+        <f>$O$41*C52+$B$49</f>
+        <v>4637471.7999999989</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999995</v>
+      </c>
+      <c r="D53" s="18">
+        <f>$O$41*C53+$B$49</f>
+        <v>4280743.1999999983</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.1999999999999993</v>
+      </c>
+      <c r="D54" s="18">
+        <f>$O$41*C54+$B$49</f>
+        <v>3924014.5999999982</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.9999999999999993</v>
+      </c>
+      <c r="D55" s="18">
+        <f>$O$41*C55+$B$49</f>
+        <v>3567285.9999999981</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.7999999999999994</v>
+      </c>
+      <c r="D56" s="18">
+        <f>$O$41*C56+$B$49</f>
+        <v>3210557.3999999985</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.5999999999999994</v>
+      </c>
+      <c r="D57" s="18">
+        <f>$O$41*C57+$B$49</f>
+        <v>2853828.7999999984</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.3999999999999995</v>
+      </c>
+      <c r="D58" s="18">
+        <f>$O$41*C58+$B$49</f>
+        <v>2497100.1999999988</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.1999999999999995</v>
+      </c>
+      <c r="D59" s="18">
+        <f>$O$41*C59+$B$49</f>
+        <v>2140371.5999999987</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.99999999999999956</v>
+      </c>
+      <c r="D60" s="18">
+        <f>$O$41*C60+$B$49</f>
+        <v>1783642.9999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.7999999999999996</v>
+      </c>
+      <c r="D61" s="18">
+        <f>$O$41*C61+$B$49</f>
+        <v>1426914.3999999992</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="D62" s="18">
+        <f>$O$41*C62+$B$49</f>
+        <v>1070185.7999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999963</v>
+      </c>
+      <c r="D63" s="18">
+        <f>$O$41*C63+$B$49</f>
+        <v>713457.19999999925</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999999962</v>
+      </c>
+      <c r="D64" s="18">
+        <f>$O$41*C64+$B$49</f>
+        <v>356728.59999999928</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+      <c r="D65" s="18">
+        <f>$O$41*C65+$B$49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="17">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="18">
+        <f>$O$41*C66+$B$49</f>
+        <v>-356728.6</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="17">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="D67" s="18">
+        <f>$O$41*C67+$B$49</f>
+        <v>-713457.2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="17">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D68" s="18">
+        <f>$O$41*C68+$B$49</f>
+        <v>-1070185.8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="17">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="D69" s="18">
+        <f>$O$41*C69+$B$49</f>
+        <v>-1426914.4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="18">
+        <f>$O$41*C70+$B$49</f>
+        <v>-1783642.9999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="17">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="D71" s="18">
+        <f>$O$41*C71+$B$49</f>
+        <v>-2140371.5999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="17">
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="E6" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="11">
-        <f>B6-B5</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" ref="C7:R7" si="0">C6-C5</f>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.40000000000000013</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.59999999999999987</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.8</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.2000000000000002</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.4</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.5999999999999999</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.8</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" si="0"/>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="0"/>
-        <v>-2.4</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" si="0"/>
-        <v>-2.6</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="0"/>
-        <v>-2.8</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="0"/>
-        <v>-3.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>212</v>
-      </c>
-      <c r="C8" s="3">
-        <v>356796</v>
-      </c>
-      <c r="D8">
-        <v>713088</v>
-      </c>
-      <c r="E8">
-        <v>1070222</v>
-      </c>
-      <c r="F8">
-        <v>1426519</v>
-      </c>
-      <c r="G8">
-        <v>1783234</v>
-      </c>
-      <c r="H8">
-        <v>2139916</v>
-      </c>
-      <c r="I8">
-        <v>2496618</v>
-      </c>
-      <c r="J8">
-        <v>2854334</v>
-      </c>
-      <c r="K8">
-        <v>3210185</v>
-      </c>
-      <c r="L8">
-        <v>3566836</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3925166</v>
-      </c>
-      <c r="N8">
-        <v>4282442</v>
-      </c>
-      <c r="O8">
-        <v>4637014</v>
-      </c>
-      <c r="P8">
-        <v>4994722</v>
-      </c>
-      <c r="Q8">
-        <v>5352093</v>
-      </c>
-      <c r="R8">
-        <v>5706981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>364</v>
-      </c>
-      <c r="C9" s="3">
-        <v>356219</v>
-      </c>
-      <c r="D9">
-        <v>712522</v>
-      </c>
-      <c r="E9">
-        <v>1068313</v>
-      </c>
-      <c r="F9">
-        <v>1426424</v>
-      </c>
-      <c r="G9">
-        <v>1782728</v>
-      </c>
-      <c r="H9">
-        <v>2138988</v>
-      </c>
-      <c r="I9">
-        <v>2496912</v>
-      </c>
-      <c r="J9">
-        <v>2854196</v>
-      </c>
-      <c r="K9">
-        <v>3209672</v>
-      </c>
-      <c r="L9">
-        <v>3567591</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3923489</v>
-      </c>
-      <c r="N9">
-        <v>4280799</v>
-      </c>
-      <c r="O9">
-        <v>4637581</v>
-      </c>
-      <c r="P9">
-        <v>4994647</v>
-      </c>
-      <c r="Q9">
-        <v>5350451</v>
-      </c>
-      <c r="R9">
-        <v>5708146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>-581</v>
-      </c>
-      <c r="C10" s="3">
-        <v>356366</v>
-      </c>
-      <c r="D10">
-        <v>712575</v>
-      </c>
-      <c r="E10">
-        <v>1070694</v>
-      </c>
-      <c r="F10">
-        <v>1427284</v>
-      </c>
-      <c r="G10">
-        <v>1783135</v>
-      </c>
-      <c r="H10">
-        <v>2139413</v>
-      </c>
-      <c r="I10">
-        <v>2497134</v>
-      </c>
-      <c r="J10">
-        <v>2853716</v>
-      </c>
-      <c r="K10">
-        <v>3210272</v>
-      </c>
-      <c r="L10">
-        <v>3567034</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3924476</v>
-      </c>
-      <c r="N10">
-        <v>4280120</v>
-      </c>
-      <c r="O10">
-        <v>4637990</v>
-      </c>
-      <c r="P10">
-        <v>4994900</v>
-      </c>
-      <c r="Q10">
-        <v>5350243</v>
-      </c>
-      <c r="R10">
-        <v>5706565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>754</v>
-      </c>
-      <c r="C11" s="3">
-        <v>356365</v>
-      </c>
-      <c r="D11">
-        <v>712579</v>
-      </c>
-      <c r="E11">
-        <v>1067981</v>
-      </c>
-      <c r="F11">
-        <v>1426944</v>
-      </c>
-      <c r="G11">
-        <v>1783506</v>
-      </c>
-      <c r="H11">
-        <v>2139370</v>
-      </c>
-      <c r="I11">
-        <v>2496531</v>
-      </c>
-      <c r="J11">
-        <v>2852993</v>
-      </c>
-      <c r="K11">
-        <v>3210283</v>
-      </c>
-      <c r="L11">
-        <v>3567048</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3924043</v>
-      </c>
-      <c r="N11">
-        <v>4281288</v>
-      </c>
-      <c r="O11">
-        <v>4637068</v>
-      </c>
-      <c r="P11">
-        <v>4994086</v>
-      </c>
-      <c r="Q11">
-        <v>5350788</v>
-      </c>
-      <c r="R11">
-        <v>5707462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>792</v>
-      </c>
-      <c r="C12" s="3">
-        <v>356418</v>
-      </c>
-      <c r="D12">
-        <v>712340</v>
-      </c>
-      <c r="E12">
-        <v>1069010</v>
-      </c>
-      <c r="F12">
-        <v>1426581</v>
-      </c>
-      <c r="G12">
-        <v>1783254</v>
-      </c>
-      <c r="H12">
-        <v>2138870</v>
-      </c>
-      <c r="I12">
-        <v>2496871</v>
-      </c>
-      <c r="J12">
-        <v>2853967</v>
-      </c>
-      <c r="K12">
-        <v>3210079</v>
-      </c>
-      <c r="L12">
-        <v>3567417</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3923608</v>
-      </c>
-      <c r="N12">
-        <v>4280991</v>
-      </c>
-      <c r="O12">
-        <v>4637144</v>
-      </c>
-      <c r="P12">
-        <v>4994354</v>
-      </c>
-      <c r="Q12">
-        <v>5350429</v>
-      </c>
-      <c r="R12">
-        <v>5707257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>-193</v>
-      </c>
-      <c r="C13" s="3">
-        <v>356191</v>
-      </c>
-      <c r="D13">
-        <v>712264</v>
-      </c>
-      <c r="E13">
-        <v>1069630</v>
-      </c>
-      <c r="F13">
-        <v>1426732</v>
-      </c>
-      <c r="G13">
-        <v>1783167</v>
-      </c>
-      <c r="H13">
-        <v>2139451</v>
-      </c>
-      <c r="I13">
-        <v>2495776</v>
-      </c>
-      <c r="J13">
-        <v>2853730</v>
-      </c>
-      <c r="K13">
-        <v>3209776</v>
-      </c>
-      <c r="L13">
-        <v>3568276</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3923646</v>
-      </c>
-      <c r="N13">
-        <v>4281021</v>
-      </c>
-      <c r="O13">
-        <v>4636621</v>
-      </c>
-      <c r="P13">
-        <v>4993168</v>
-      </c>
-      <c r="Q13">
-        <v>5350207</v>
-      </c>
-      <c r="R13">
-        <v>5707003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>-235</v>
-      </c>
-      <c r="C14" s="3">
-        <v>356134</v>
-      </c>
-      <c r="D14">
-        <v>713160</v>
-      </c>
-      <c r="E14">
-        <v>1068389</v>
-      </c>
-      <c r="F14">
-        <v>1426607</v>
-      </c>
-      <c r="G14">
-        <v>1784200</v>
-      </c>
-      <c r="H14">
-        <v>2139583</v>
-      </c>
-      <c r="I14">
-        <v>2498694</v>
-      </c>
-      <c r="J14">
-        <v>2854674</v>
-      </c>
-      <c r="K14">
-        <v>3209749</v>
-      </c>
-      <c r="L14">
-        <v>3566737</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3923444</v>
-      </c>
-      <c r="N14">
-        <v>4280281</v>
-      </c>
-      <c r="O14">
-        <v>4637236</v>
-      </c>
-      <c r="P14">
-        <v>4995743</v>
-      </c>
-      <c r="Q14">
-        <v>5350736</v>
-      </c>
-      <c r="R14">
-        <v>5707501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>216</v>
-      </c>
-      <c r="C15" s="3">
-        <v>356086</v>
-      </c>
-      <c r="D15">
-        <v>714179</v>
-      </c>
-      <c r="E15">
-        <v>1069372</v>
-      </c>
-      <c r="F15">
-        <v>1427602</v>
-      </c>
-      <c r="G15">
-        <v>1783066</v>
-      </c>
-      <c r="H15">
-        <v>2140373</v>
-      </c>
-      <c r="I15">
-        <v>2496716</v>
-      </c>
-      <c r="J15">
-        <v>2853255</v>
-      </c>
-      <c r="K15">
-        <v>3210457</v>
-      </c>
-      <c r="L15">
-        <v>3566650</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3924860</v>
-      </c>
-      <c r="N15">
-        <v>4280582</v>
-      </c>
-      <c r="O15">
-        <v>4637298</v>
-      </c>
-      <c r="P15">
-        <v>4994843</v>
-      </c>
-      <c r="Q15">
-        <v>5350652</v>
-      </c>
-      <c r="R15">
-        <v>5707268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>178</v>
-      </c>
-      <c r="C16" s="3">
-        <v>355692</v>
-      </c>
-      <c r="D16">
-        <v>713593</v>
-      </c>
-      <c r="E16">
-        <v>1069509</v>
-      </c>
-      <c r="F16">
-        <v>1426777</v>
-      </c>
-      <c r="G16">
-        <v>1783323</v>
-      </c>
-      <c r="H16">
-        <v>2139502</v>
-      </c>
-      <c r="I16">
-        <v>2496289</v>
-      </c>
-      <c r="J16">
-        <v>2853283</v>
-      </c>
-      <c r="K16">
-        <v>3211307</v>
-      </c>
-      <c r="L16">
-        <v>3566682</v>
-      </c>
-      <c r="M16" s="3">
-        <v>3923509</v>
-      </c>
-      <c r="N16">
-        <v>4280075</v>
-      </c>
-      <c r="O16">
-        <v>4637586</v>
-      </c>
-      <c r="P16">
-        <v>4993244</v>
-      </c>
-      <c r="Q16">
-        <v>5351911</v>
-      </c>
-      <c r="R16">
-        <v>5706994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>-231</v>
-      </c>
-      <c r="C17" s="3">
-        <v>357426</v>
-      </c>
-      <c r="D17">
-        <v>713117</v>
-      </c>
-      <c r="E17">
-        <v>1069416</v>
-      </c>
-      <c r="F17">
-        <v>1427305</v>
-      </c>
-      <c r="G17">
-        <v>1783225</v>
-      </c>
-      <c r="H17">
-        <v>2140249</v>
-      </c>
-      <c r="I17">
-        <v>2497338</v>
-      </c>
-      <c r="J17">
-        <v>2852024</v>
-      </c>
-      <c r="K17">
-        <v>3210855</v>
-      </c>
-      <c r="L17">
-        <v>3567552</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3923980</v>
-      </c>
-      <c r="N17">
-        <v>4280491</v>
-      </c>
-      <c r="O17">
-        <v>4637272</v>
-      </c>
-      <c r="P17">
-        <v>4994747</v>
-      </c>
-      <c r="Q17">
-        <v>5350177</v>
-      </c>
-      <c r="R17">
-        <v>5708236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f t="shared" ref="B18:R18" si="1">AVERAGE(B8:B17)</f>
-        <v>127.6</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>356369.3</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>712941.7</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>1069253.6000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>1426877.5</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>1783283.8</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>2139571.5</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>2496887.9</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>2853617.2</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>3210263.5</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="1"/>
-        <v>3567182.3</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>3924022.1</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>4280809</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="1"/>
-        <v>4637281</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>4994445.4000000004</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="1"/>
-        <v>5350768.7</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="1"/>
-        <v>5707341.2999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="7">
-        <f>C18-B18</f>
-        <v>356241.7</v>
-      </c>
-      <c r="D19" s="8">
-        <f>D18-C18</f>
-        <v>356572.39999999997</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" ref="E19:R19" si="2">E18-D18</f>
-        <v>356311.90000000014</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D72" s="18">
+        <f>$O$41*C72+$B$49</f>
+        <v>-2497100.1999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="17">
         <f t="shared" si="2"/>
-        <v>357623.89999999991</v>
-      </c>
-      <c r="G19" s="8">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D73" s="18">
+        <f>$O$41*C73+$B$49</f>
+        <v>-2853828.7999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="17">
         <f t="shared" si="2"/>
-        <v>356406.30000000005</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="2"/>
-        <v>356287.69999999995</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="2"/>
-        <v>357316.39999999991</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="2"/>
-        <v>356729.30000000028</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="2"/>
-        <v>356646.29999999981</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="2"/>
-        <v>356918.79999999981</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="2"/>
-        <v>356839.80000000028</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="2"/>
-        <v>356786.89999999991</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="2"/>
-        <v>356472</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="2"/>
-        <v>357164.40000000037</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="2"/>
-        <v>356323.29999999981</v>
-      </c>
-      <c r="R19" s="8">
-        <f t="shared" si="2"/>
-        <v>356572.59999999963</v>
-      </c>
-      <c r="S19" s="6">
-        <f>AVERAGE(D19:R19)</f>
-        <v>356731.46666666662</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J22" s="1">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D74" s="18">
+        <f>$O$41*C74+$B$49</f>
+        <v>-3210557.3999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="17">
+        <f>C74+0.2</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D75" s="18">
+        <f>$O$41*C75+$B$49</f>
+        <v>-3567285.9999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="17">
+        <f>C75+0.2</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="D76" s="18">
+        <f>$O$41*C76+$B$49</f>
+        <v>-3924014.5999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="17">
+        <f t="shared" ref="C77" si="3">C76+0.2</f>
         <v>2.4</v>
       </c>
-      <c r="K22" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="D77" s="18">
+        <f>$O$41*C77+$B$49</f>
+        <v>-4280743.1999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="17">
+        <f>C77+0.2</f>
         <v>2.6</v>
       </c>
-      <c r="M22" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="N22" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="O22" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="P22" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="R22" s="4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="13">
-        <f>B22-B21</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
-        <f t="shared" ref="C23:Q23" si="3">C22-C21</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="3"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="L23" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M23" s="13">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N23" s="13">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="P23" s="13">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="R23" s="13">
-        <f>R22-R21</f>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>-630</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-357565</v>
-      </c>
-      <c r="D24">
-        <v>-714606</v>
-      </c>
-      <c r="E24">
-        <v>-1072852</v>
-      </c>
-      <c r="F24">
-        <v>-1427408</v>
-      </c>
-      <c r="G24">
-        <v>-1784128</v>
-      </c>
-      <c r="H24">
-        <v>-2140791</v>
-      </c>
-      <c r="I24">
-        <v>-2499620</v>
-      </c>
-      <c r="J24">
-        <v>-2853458</v>
-      </c>
-      <c r="K24">
-        <v>-3212513</v>
-      </c>
-      <c r="L24">
-        <v>-3567256</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-3925202</v>
-      </c>
-      <c r="N24">
-        <v>-4282803</v>
-      </c>
-      <c r="O24">
-        <v>-4637956</v>
-      </c>
-      <c r="P24">
-        <v>-4994183</v>
-      </c>
-      <c r="Q24">
-        <v>-5351878</v>
-      </c>
-      <c r="R24">
-        <v>-5708310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>-337</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-358301</v>
-      </c>
-      <c r="D25">
-        <v>-714199</v>
-      </c>
-      <c r="E25">
-        <v>-1071103</v>
-      </c>
-      <c r="F25">
-        <v>-1427367</v>
-      </c>
-      <c r="G25">
-        <v>-1784688</v>
-      </c>
-      <c r="H25">
-        <v>-2142110</v>
-      </c>
-      <c r="I25">
-        <v>-2497940</v>
-      </c>
-      <c r="J25">
-        <v>-2853793</v>
-      </c>
-      <c r="K25">
-        <v>-3211031</v>
-      </c>
-      <c r="L25">
-        <v>-3567805</v>
-      </c>
-      <c r="M25" s="3">
-        <v>-3925352</v>
-      </c>
-      <c r="N25">
-        <v>-4281158</v>
-      </c>
-      <c r="O25">
-        <v>-4638187</v>
-      </c>
-      <c r="P25">
-        <v>-4995476</v>
-      </c>
-      <c r="Q25">
-        <v>-5352601</v>
-      </c>
-      <c r="R25">
-        <v>-5707875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>-1525</v>
-      </c>
-      <c r="C26" s="3">
-        <v>-358284</v>
-      </c>
-      <c r="D26">
-        <v>-714092</v>
-      </c>
-      <c r="E26">
-        <v>-1070401</v>
-      </c>
-      <c r="F26">
-        <v>-1429100</v>
-      </c>
-      <c r="G26">
-        <v>-1783810</v>
-      </c>
-      <c r="H26">
-        <v>-2141278</v>
-      </c>
-      <c r="I26">
-        <v>-2498131</v>
-      </c>
-      <c r="J26">
-        <v>-2854245</v>
-      </c>
-      <c r="K26">
-        <v>-3211612</v>
-      </c>
-      <c r="L26">
-        <v>-3568695</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3924925</v>
-      </c>
-      <c r="N26">
-        <v>-4281587</v>
-      </c>
-      <c r="O26">
-        <v>-4637302</v>
-      </c>
-      <c r="P26">
-        <v>-4995361</v>
-      </c>
-      <c r="Q26">
-        <v>-5350436</v>
-      </c>
-      <c r="R26">
-        <v>-5707718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>118</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-357270</v>
-      </c>
-      <c r="D27">
-        <v>-714495</v>
-      </c>
-      <c r="E27">
-        <v>-1070846</v>
-      </c>
-      <c r="F27">
-        <v>-1427153</v>
-      </c>
-      <c r="G27">
-        <v>-1783344</v>
-      </c>
-      <c r="H27">
-        <v>-2141579</v>
-      </c>
-      <c r="I27">
-        <v>-2496996</v>
-      </c>
-      <c r="J27">
-        <v>-2853305</v>
-      </c>
-      <c r="K27">
-        <v>-3210683</v>
-      </c>
-      <c r="L27">
-        <v>-3568383</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3925815</v>
-      </c>
-      <c r="N27">
-        <v>-4280700</v>
-      </c>
-      <c r="O27">
-        <v>-4638166</v>
-      </c>
-      <c r="P27">
-        <v>-4994788</v>
-      </c>
-      <c r="Q27">
-        <v>-5352298</v>
-      </c>
-      <c r="R27">
-        <v>-5708748</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>-788</v>
-      </c>
-      <c r="C28" s="3">
-        <v>-358539</v>
-      </c>
-      <c r="D28">
-        <v>-712419</v>
-      </c>
-      <c r="E28">
-        <v>-1072199</v>
-      </c>
-      <c r="F28">
-        <v>-1428871</v>
-      </c>
-      <c r="G28">
-        <v>-1785194</v>
-      </c>
-      <c r="H28">
-        <v>-2141335</v>
-      </c>
-      <c r="I28">
-        <v>-2497417</v>
-      </c>
-      <c r="J28">
-        <v>-2854634</v>
-      </c>
-      <c r="K28">
-        <v>-3211154</v>
-      </c>
-      <c r="L28">
-        <v>-3568386</v>
-      </c>
-      <c r="M28" s="3">
-        <v>-3925500</v>
-      </c>
-      <c r="N28">
-        <v>-4281277</v>
-      </c>
-      <c r="O28">
-        <v>-4638174</v>
-      </c>
-      <c r="P28">
-        <v>-4994789</v>
-      </c>
-      <c r="Q28">
-        <v>-5352275</v>
-      </c>
-      <c r="R28">
-        <v>-5707160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>-858</v>
-      </c>
-      <c r="C29" s="3">
-        <v>-357870</v>
-      </c>
-      <c r="D29">
-        <v>-714186</v>
-      </c>
-      <c r="E29">
-        <v>-1070848</v>
-      </c>
-      <c r="F29">
-        <v>-1428225</v>
-      </c>
-      <c r="G29">
-        <v>-1785165</v>
-      </c>
-      <c r="H29">
-        <v>-2142089</v>
-      </c>
-      <c r="I29">
-        <v>-2497926</v>
-      </c>
-      <c r="J29">
-        <v>-2854959</v>
-      </c>
-      <c r="K29">
-        <v>-3212296</v>
-      </c>
-      <c r="L29">
-        <v>-3568992</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-3924696</v>
-      </c>
-      <c r="N29">
-        <v>-4281579</v>
-      </c>
-      <c r="O29">
-        <v>-4638322</v>
-      </c>
-      <c r="P29">
-        <v>-4994540</v>
-      </c>
-      <c r="Q29">
-        <v>-5352353</v>
-      </c>
-      <c r="R29">
-        <v>-5707616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>-234</v>
-      </c>
-      <c r="C30" s="3">
-        <v>-358448</v>
-      </c>
-      <c r="D30">
-        <v>-713463</v>
-      </c>
-      <c r="E30">
-        <v>-1070129</v>
-      </c>
-      <c r="F30">
-        <v>-1427861</v>
-      </c>
-      <c r="G30">
-        <v>-1784149</v>
-      </c>
-      <c r="H30">
-        <v>-2141120</v>
-      </c>
-      <c r="I30">
-        <v>-2498200</v>
-      </c>
-      <c r="J30">
-        <v>-2854056</v>
-      </c>
-      <c r="K30">
-        <v>-3212132</v>
-      </c>
-      <c r="L30">
-        <v>-3568434</v>
-      </c>
-      <c r="M30" s="3">
-        <v>-3926431</v>
-      </c>
-      <c r="N30">
-        <v>-4280864</v>
-      </c>
-      <c r="O30">
-        <v>-4637842</v>
-      </c>
-      <c r="P30">
-        <v>-4995193</v>
-      </c>
-      <c r="Q30">
-        <v>-5350997</v>
-      </c>
-      <c r="R30">
-        <v>-5708367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>-865</v>
-      </c>
-      <c r="C31" s="3">
-        <v>-357629</v>
-      </c>
-      <c r="D31">
-        <v>-714329</v>
-      </c>
-      <c r="E31">
-        <v>-1070120</v>
-      </c>
-      <c r="F31">
-        <v>-1428764</v>
-      </c>
-      <c r="G31">
-        <v>-1784525</v>
-      </c>
-      <c r="H31">
-        <v>-2140551</v>
-      </c>
-      <c r="I31">
-        <v>-2496976</v>
-      </c>
-      <c r="J31">
-        <v>-2855306</v>
-      </c>
-      <c r="K31">
-        <v>-3211152</v>
-      </c>
-      <c r="L31">
-        <v>-3567356</v>
-      </c>
-      <c r="M31" s="3">
-        <v>-3925918</v>
-      </c>
-      <c r="N31">
-        <v>-4281242</v>
-      </c>
-      <c r="O31">
-        <v>-4637930</v>
-      </c>
-      <c r="P31">
-        <v>-4995386</v>
-      </c>
-      <c r="Q31">
-        <v>-5351373</v>
-      </c>
-      <c r="R31">
-        <v>-5707388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>-699</v>
-      </c>
-      <c r="C32" s="3">
-        <v>-358301</v>
-      </c>
-      <c r="D32">
-        <v>-714851</v>
-      </c>
-      <c r="E32">
-        <v>-1069189</v>
-      </c>
-      <c r="F32">
-        <v>-1427970</v>
-      </c>
-      <c r="G32">
-        <v>-1783423</v>
-      </c>
-      <c r="H32">
-        <v>-2141947</v>
-      </c>
-      <c r="I32">
-        <v>-2497581</v>
-      </c>
-      <c r="J32">
-        <v>-2855428</v>
-      </c>
-      <c r="K32">
-        <v>-3211853</v>
-      </c>
-      <c r="L32">
-        <v>-3568439</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3926513</v>
-      </c>
-      <c r="N32">
-        <v>-4281746</v>
-      </c>
-      <c r="O32">
-        <v>-4638239</v>
-      </c>
-      <c r="P32">
-        <v>-4994866</v>
-      </c>
-      <c r="Q32">
-        <v>-5351283</v>
-      </c>
-      <c r="R32">
-        <v>-5708380</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>-842</v>
-      </c>
-      <c r="C33" s="3">
-        <v>-356763</v>
-      </c>
-      <c r="D33">
-        <v>-713556</v>
-      </c>
-      <c r="E33">
-        <v>-1070051</v>
-      </c>
-      <c r="F33">
-        <v>-1427410</v>
-      </c>
-      <c r="G33">
-        <v>-1784380</v>
-      </c>
-      <c r="H33">
-        <v>-2142320</v>
-      </c>
-      <c r="I33">
-        <v>-2499904</v>
-      </c>
-      <c r="J33">
-        <v>-2855544</v>
-      </c>
-      <c r="K33">
-        <v>-3211978</v>
-      </c>
-      <c r="L33">
-        <v>-3568782</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3925624</v>
-      </c>
-      <c r="N33">
-        <v>-4281545</v>
-      </c>
-      <c r="O33">
-        <v>-4638492</v>
-      </c>
-      <c r="P33">
-        <v>-4995519</v>
-      </c>
-      <c r="Q33">
-        <v>-5351728</v>
-      </c>
-      <c r="R33">
-        <v>-5708177</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <f t="shared" ref="B34:R34" si="4">AVERAGE(B24:B33)</f>
-        <v>-666</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="D78" s="18">
+        <f>$O$41*C78+$B$49</f>
+        <v>-4637471.8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="17">
+        <f t="shared" ref="C79:C80" si="4">C78+0.2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D79" s="18">
+        <f>$O$41*C79+$B$49</f>
+        <v>-4994200.3999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="17">
         <f t="shared" si="4"/>
-        <v>-357897</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="4"/>
-        <v>-714019.6</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="4"/>
-        <v>-1070773.8</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="4"/>
-        <v>-1428012.9</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="4"/>
-        <v>-1784280.6</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="4"/>
-        <v>-2141512</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="4"/>
-        <v>-2498069.1</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="4"/>
-        <v>-2854472.8</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>-3211640.4</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="4"/>
-        <v>-3568252.8</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="4"/>
-        <v>-3925597.6</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="4"/>
-        <v>-4281450.0999999996</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="4"/>
-        <v>-4638061</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="4"/>
-        <v>-4995010.0999999996</v>
-      </c>
-      <c r="Q34" s="1">
-        <f t="shared" si="4"/>
-        <v>-5351722.2</v>
-      </c>
-      <c r="R34" s="1">
-        <f t="shared" si="4"/>
-        <v>-5707973.9000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" s="7">
-        <f>B34-C34</f>
-        <v>357231</v>
-      </c>
-      <c r="D35" s="8">
-        <f>C34-D34</f>
-        <v>356122.6</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" ref="E35:R35" si="5">D34-E34</f>
-        <v>356754.20000000007</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="5"/>
-        <v>357239.09999999986</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="5"/>
-        <v>356267.70000000019</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="5"/>
-        <v>357231.39999999991</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="5"/>
-        <v>356557.10000000009</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="5"/>
-        <v>356403.69999999972</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" si="5"/>
-        <v>357167.60000000009</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="5"/>
-        <v>356612.39999999991</v>
-      </c>
-      <c r="M35" s="8">
-        <f t="shared" si="5"/>
-        <v>357344.80000000028</v>
-      </c>
-      <c r="N35" s="8">
-        <f t="shared" si="5"/>
-        <v>355852.49999999953</v>
-      </c>
-      <c r="O35" s="8">
-        <f t="shared" si="5"/>
-        <v>356610.90000000037</v>
-      </c>
-      <c r="P35" s="8">
-        <f t="shared" si="5"/>
-        <v>356949.09999999963</v>
-      </c>
-      <c r="Q35" s="8">
-        <f t="shared" si="5"/>
-        <v>356712.10000000056</v>
-      </c>
-      <c r="R35" s="8">
-        <f t="shared" si="5"/>
-        <v>356251.70000000019</v>
-      </c>
-      <c r="S35" s="6">
-        <f>AVERAGE(D35:R35)</f>
-        <v>356671.79333333333</v>
-      </c>
-      <c r="T35" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S36" s="14">
-        <f>AVERAGE(S19:S35)</f>
-        <v>356701.63</v>
-      </c>
-      <c r="T36" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>-302</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>-890</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>-639</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>-1396</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>-421</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <f>AVERAGE(B38:B47)</f>
-        <v>-366.4</v>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D80" s="18">
+        <f>$O$41*C80+$B$49</f>
+        <v>-5350929</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="17">
+        <f>C80+0.2</f>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="D81" s="18">
+        <f>$O$41*C81+$B$49</f>
+        <v>-5707657.6000000006</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="D4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>